--- a/个人/张晨/实施周数据-张磊组-张晨.xlsx
+++ b/个人/张晨/实施周数据-张磊组-张晨.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -249,6 +249,96 @@
     <t>周先生</t>
   </si>
   <si>
+    <t>伊至尊牛肉面</t>
+  </si>
+  <si>
+    <t>王先生</t>
+  </si>
+  <si>
+    <t>悸动(崇明长兴东村店)</t>
+  </si>
+  <si>
+    <t>孙传武</t>
+  </si>
+  <si>
+    <t>扬州</t>
+  </si>
+  <si>
+    <t>悸动(扬州奥邦大润发店)</t>
+  </si>
+  <si>
+    <t>张剑虹</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>悸动(南京成贤学院店)</t>
+  </si>
+  <si>
+    <t>端木玉虎</t>
+  </si>
+  <si>
+    <t>江阴</t>
+  </si>
+  <si>
+    <t>悸动(无锡青阳公园店)</t>
+  </si>
+  <si>
+    <t>吉海军</t>
+  </si>
+  <si>
+    <t>盐城</t>
+  </si>
+  <si>
+    <t>悸动(盐城益林镇步行街店)</t>
+  </si>
+  <si>
+    <t>陈星朋</t>
+  </si>
+  <si>
+    <t>西安</t>
+  </si>
+  <si>
+    <t>悸动(西安泰康商场店)</t>
+  </si>
+  <si>
+    <t>刘炳斐</t>
+  </si>
+  <si>
+    <t>金华</t>
+  </si>
+  <si>
+    <t>悸动(金华百盛大厦店)</t>
+  </si>
+  <si>
+    <t>叶新群</t>
+  </si>
+  <si>
+    <t>苏州</t>
+  </si>
+  <si>
+    <t>悸动(苏州港龙城店)</t>
+  </si>
+  <si>
+    <t>陈思强</t>
+  </si>
+  <si>
+    <t>悸动(扬州江都大润发店)</t>
+  </si>
+  <si>
+    <t>王娟</t>
+  </si>
+  <si>
+    <t>嘉兴</t>
+  </si>
+  <si>
+    <t>悸动(嘉兴友谊街店)</t>
+  </si>
+  <si>
+    <t>陈晓珍</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -274,6 +364,9 @@
   </si>
   <si>
     <t>tea cross上线</t>
+  </si>
+  <si>
+    <t>去平阳路爱莉斯烘培对接会员数据</t>
   </si>
 </sst>
 </file>
@@ -283,11 +376,11 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,56 +440,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,34 +458,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,7 +481,52 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,8 +540,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,43 +611,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -571,25 +674,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,25 +716,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,19 +728,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,73 +746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,6 +762,84 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="33">
     <border>
@@ -1046,30 +1149,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1112,6 +1191,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1133,16 +1236,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1152,10 +1255,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1164,149 +1267,149 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1368,18 +1471,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1879,440 +1999,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:17">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
     </row>
     <row r="2" ht="15" spans="1:17">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="60" t="s">
+      <c r="I2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="61" t="s">
+      <c r="J2" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="62" t="s">
+      <c r="K2" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="63" t="s">
+      <c r="L2" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="64" t="s">
+      <c r="M2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="65" t="s">
+      <c r="N2" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="30"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40">
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41">
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="68" t="e">
+      <c r="J3" s="72"/>
+      <c r="K3" s="73" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="69">
+      <c r="L3" s="74">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="70">
+      <c r="M3" s="75">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="71" t="e">
+      <c r="N3" s="76" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46">
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="47">
+      <c r="G4" s="52"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="68" t="e">
+      <c r="J4" s="77"/>
+      <c r="K4" s="73" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="69">
+      <c r="L4" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="70">
+      <c r="M4" s="75">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="71" t="e">
+      <c r="N4" s="76" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46">
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="47">
+      <c r="G5" s="52"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="72"/>
-      <c r="K5" s="68" t="e">
+      <c r="J5" s="77"/>
+      <c r="K5" s="73" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="69">
+      <c r="L5" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="70">
+      <c r="M5" s="75">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="71" t="e">
+      <c r="N5" s="76" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46">
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="47">
+      <c r="G6" s="52"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="72"/>
-      <c r="K6" s="68" t="e">
+      <c r="J6" s="77"/>
+      <c r="K6" s="73" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="69">
+      <c r="L6" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="70">
+      <c r="M6" s="75">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="71" t="e">
+      <c r="N6" s="76" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46">
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="47">
+      <c r="G7" s="52"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="68" t="e">
+      <c r="J7" s="77"/>
+      <c r="K7" s="73" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="69">
+      <c r="L7" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="70">
+      <c r="M7" s="75">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="71" t="e">
+      <c r="N7" s="76" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46">
+      <c r="D8" s="50"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="47">
+      <c r="G8" s="52"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="72"/>
-      <c r="K8" s="68" t="e">
+      <c r="J8" s="77"/>
+      <c r="K8" s="73" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="69">
+      <c r="L8" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="70">
+      <c r="M8" s="75">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="71" t="e">
+      <c r="N8" s="76" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46">
+      <c r="D9" s="50"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="47"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="47">
+      <c r="G9" s="52"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="72"/>
-      <c r="K9" s="68" t="e">
+      <c r="J9" s="77"/>
+      <c r="K9" s="73" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="69">
+      <c r="L9" s="74">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="70">
+      <c r="M9" s="75">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="71" t="e">
+      <c r="N9" s="76" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
     </row>
     <row r="10" ht="15" spans="1:17">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="48" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="51">
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="52">
+      <c r="G10" s="57"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="73"/>
-      <c r="K10" s="74" t="e">
+      <c r="J10" s="78"/>
+      <c r="K10" s="79" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="75">
+      <c r="L10" s="80">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="76">
+      <c r="M10" s="81">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="77" t="e">
+      <c r="N10" s="82" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
     </row>
     <row r="11" ht="15" spans="1:17">
-      <c r="A11" s="54"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="56" t="s">
+      <c r="A11" s="59"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="57">
+      <c r="D11" s="62">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="58">
+      <c r="I11" s="63">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="57">
+      <c r="J11" s="62">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="78" t="e">
+      <c r="K11" s="83" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="58">
+      <c r="L11" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="58">
+      <c r="M11" s="63">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="79" t="e">
+      <c r="N11" s="84" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2328,10 +2448,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O603"/>
+  <dimension ref="A1:P603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2375,7 +2495,7 @@
       <c r="H1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>33</v>
       </c>
       <c r="J1" s="11" t="s">
@@ -2435,7 +2555,7 @@
       <c r="N2" s="15">
         <v>18817881156</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="26" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2480,7 +2600,7 @@
       <c r="N3" s="2">
         <v>15216631412</v>
       </c>
-      <c r="O3" s="27" t="s">
+      <c r="O3" s="26" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2570,7 +2690,7 @@
       <c r="N5" s="15">
         <v>18521385822</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="26" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2615,7 +2735,7 @@
       <c r="N6" s="15">
         <v>17682421833</v>
       </c>
-      <c r="O6" s="27" t="s">
+      <c r="O6" s="26" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2660,7 +2780,7 @@
       <c r="N7" s="15">
         <v>15618219046</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="O7" s="26" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2705,7 +2825,7 @@
       <c r="N8" s="15">
         <v>13750406118</v>
       </c>
-      <c r="O8" s="27" t="s">
+      <c r="O8" s="26" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2750,7 +2870,7 @@
       <c r="N9" s="15">
         <v>15618265369</v>
       </c>
-      <c r="O9" s="27" t="s">
+      <c r="O9" s="26" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2795,7 +2915,7 @@
       <c r="N10" s="15">
         <v>18018620331</v>
       </c>
-      <c r="O10" s="27" t="s">
+      <c r="O10" s="26" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2930,173 +3050,505 @@
       <c r="N13" s="15">
         <v>13805173869</v>
       </c>
-      <c r="O13" s="27" t="s">
+      <c r="O13" s="26" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="15"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="B14" s="18">
+        <v>43039</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="15">
+        <v>76103065</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="14">
+        <v>18321505579</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="15">
+        <v>18321934198</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="15"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="B15" s="18">
+        <v>43039</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="23">
+        <v>76090200</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="14">
+        <v>18321505579</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="23">
+        <v>13671806413</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="15"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="B16" s="18">
+        <v>43039</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="23">
+        <v>76092968</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="14">
+        <v>18321505579</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="23">
+        <v>18501531081</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="28"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="B17" s="18">
+        <v>43039</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="23">
+        <v>76081882</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="14">
+        <v>18321505579</v>
+      </c>
+      <c r="L17" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="29">
+        <v>18651837020</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="24"/>
-      <c r="E18" s="25"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="B18" s="18">
+        <v>43039</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="23">
+        <v>76092397</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="14">
+        <v>18321505579</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N18" s="27">
+        <v>15833312578</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="15"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="B19" s="18">
+        <v>43039</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="23">
+        <v>76092938</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="14">
+        <v>18321505579</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19" s="27">
+        <v>13382633058</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="B20" s="18">
+        <v>43039</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="23">
+        <v>76093506</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="14">
+        <v>18321505579</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="30">
+        <v>18691173263</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="15"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="B21" s="18">
+        <v>43039</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="23">
+        <v>76095109</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="14">
+        <v>18321505579</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="23">
+        <v>18358906600</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="15"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="B22" s="18">
+        <v>43039</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="23">
+        <v>76100857</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="14">
+        <v>18321505579</v>
+      </c>
+      <c r="L22" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" s="23">
+        <v>13681647792</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="15"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="B23" s="18">
+        <v>43039</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="23">
+        <v>76101161</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="14">
+        <v>18321505579</v>
+      </c>
+      <c r="L23" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" s="23">
+        <v>13605251276</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="15"/>
+      <c r="B24" s="18">
+        <v>43039</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="23">
+        <v>76102760</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="14">
+        <v>18321505579</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="23">
+        <v>13957320925</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="17"/>
@@ -4837,10 +5289,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B7 B8 B9 B10 B11 B12 B18 B2:B4 B5:B6 B13:B17 B19:B24 B25:B1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B7 B8 B9 B10 B11 B12 B13 B2:B4 B5:B6 B14:B24 B25:B1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C4 C5 C6 C7 C8 C9 C18 C19 C10:C11 C12:C13 C14:C17 C20:C24 C25:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C4 C5 C6 C7 C8 C9 C12 C10:C11 C13:C24 C25:C1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4855,8 +5307,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -4868,16 +5320,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4891,7 +5343,7 @@
         <v>42952</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4905,7 +5357,7 @@
         <v>42959</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4919,7 +5371,7 @@
         <v>42960</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4933,7 +5385,7 @@
         <v>42966</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4947,7 +5399,7 @@
         <v>42967</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4959,7 +5411,7 @@
         <v>42973</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4971,7 +5423,7 @@
         <v>42974</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:4">
@@ -4983,20 +5435,32 @@
         <v>42995</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43029</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3">
+        <v>43036</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2"/>
